--- a/biology/Biologie cellulaire et moléculaire/Croisement_de_contrôle/Croisement_de_contrôle.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Croisement_de_contrôle/Croisement_de_contrôle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croisement_de_contr%C3%B4le</t>
+          <t>Croisement_de_contrôle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le croisement de contrôle, croisement test ou en anglais test-cross en génétique a pour but de révéler le génotype d'un organisme qui présente un phénotype dominant (comme les fleurs violettes chez le Pois). Cet individu peut être soit hétérozygote, soit homozygote pour l'allèle dominant. Le moyen le plus efficace de connaître son génotype est de le croiser avec un organisme exprimant le phénotype récessif (comme les fleurs blanches chez le Pois), et donc nécessairement homozygote. Les phénotypes de la génération suivante permettront de déterminer le génotype du parent ayant un phénotype dominant.
 Il faut préciser que l'étude (chez un individu hétérozygote) d'un caractère qui dépend d'un unique gène par un croisement de contrôle engendrera des individus aux phénotypes équiprobables, c'est-à-dire 50 % et 50 % lorsqu'il s'agit d'un caractère qui présente deux variantes (considéré comme courant).
